--- a/网络/Openstack的SDN性能测试数据.xlsx
+++ b/网络/Openstack的SDN性能测试数据.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="iperf+ping测试结果" sheetId="1" state="visible" r:id="rId2"/>
@@ -7465,7 +7465,818 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart100.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>udp测试特殊情况</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>udp异常展示!$A$2:$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>不同节点物理机到提供者虚拟机发送带宽(MByte/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5b9bd5"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="5b9bd5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="5b9bd5"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>udp异常展示!$B$1:$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2字节</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4字节</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8字节</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16字节</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32字节</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64字节</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128字节</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256字节</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512字节</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024字节</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048字节</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096字节</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8192字节</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16384字节</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32768字节</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65536字节</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>udp异常展示!$B$2:$Q$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.46716</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.990332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.92444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.88346</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.83126</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.2154</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.0984</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.584</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>109.886</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>117.036</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>117.358</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>119.466</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>119.576</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>119.64</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>119.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>udp异常展示!$A$3:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>不同节点物理机到提供者虚拟机接收带宽(MByte/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ed7d31"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>udp异常展示!$B$1:$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2字节</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4字节</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8字节</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16字节</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32字节</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64字节</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128字节</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256字节</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512字节</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024字节</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048字节</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096字节</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8192字节</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16384字节</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32768字节</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65536字节</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>udp异常展示!$B$3:$Q$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.00016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000207</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00052</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.001688</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.005059</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.008397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.013115</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.023817</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.047479</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.101735</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.123076</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.267092</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.639518</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3199</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.66076</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>udp异常展示!$A$4:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>不同节点提供者虚拟机到物理机发送带宽(MByte/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="a5a5a5"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="a5a5a5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="a5a5a5"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>udp异常展示!$B$1:$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2字节</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4字节</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8字节</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16字节</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32字节</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64字节</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128字节</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256字节</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512字节</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024字节</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048字节</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096字节</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8192字节</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16384字节</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32768字节</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65536字节</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>udp异常展示!$B$4:$Q$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.015843</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.032364</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.064869</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.128862</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.257486</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.04284</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.05124</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.08406</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.03534</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.3422</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.0502</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45.3302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>71.6522</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>99.7028</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>136.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>udp异常展示!$A$5:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>不同节点提供者虚拟机到物理机接收带宽(MByte/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffc000"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="ffc000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffc000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>udp异常展示!$B$1:$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2字节</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4字节</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8字节</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16字节</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32字节</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64字节</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128字节</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256字节</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512字节</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024字节</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048字节</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096字节</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8192字节</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16384字节</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32768字节</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65536字节</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>udp异常展示!$B$5:$Q$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.015828</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.032364</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.064872</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.128996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.257234</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.523494</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.04286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.04926</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.08418</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.03558</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.3428</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45.3322</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>71.5072</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>99.6988</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>119.726</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="54431986"/>
+        <c:axId val="1010167"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="54431986"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1010167"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1010167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="54431986"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart99.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8148,11 +8959,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="71459460"/>
-        <c:axId val="31315136"/>
+        <c:axId val="77832629"/>
+        <c:axId val="60579958"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71459460"/>
+        <c:axId val="77832629"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8188,14 +8999,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31315136"/>
+        <c:crossAx val="60579958"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="31315136"/>
+        <c:axId val="60579958"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8238,818 +9049,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71459460"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart58.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>udp测试特殊情况</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>udp异常展示!$A$2:$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>不同节点物理机到提供者虚拟机发送带宽(MByte/s)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>udp异常展示!$B$1:$Q$1</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>2字节</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4字节</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8字节</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16字节</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32字节</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>64字节</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128字节</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>256字节</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>512字节</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1024字节</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2048字节</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4096字节</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8192字节</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16384字节</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>32768字节</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>65536字节</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>udp异常展示!$B$2:$Q$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.46716</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.990332</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.92444</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.88346</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.83126</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15.37</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30.2154</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>61.0984</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>97.584</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>109.886</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>117.036</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>117.358</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>119.466</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>119.576</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>119.64</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>119.88</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>udp异常展示!$A$3:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>不同节点物理机到提供者虚拟机接收带宽(MByte/s)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>udp异常展示!$B$1:$Q$1</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>2字节</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4字节</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8字节</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16字节</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32字节</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>64字节</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128字节</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>256字节</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>512字节</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1024字节</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2048字节</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4096字节</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8192字节</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16384字节</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>32768字节</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>65536字节</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>udp异常展示!$B$3:$Q$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.00016</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.000207</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.00052</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.000672</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.001688</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.005059</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.008397</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.013115</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.023817</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.047479</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.101735</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.123076</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.267092</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.639518</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.3199</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.66076</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>udp异常展示!$A$4:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>不同节点提供者虚拟机到物理机发送带宽(MByte/s)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>udp异常展示!$B$1:$Q$1</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>2字节</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4字节</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8字节</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16字节</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32字节</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>64字节</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128字节</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>256字节</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>512字节</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1024字节</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2048字节</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4096字节</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8192字节</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16384字节</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>32768字节</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>65536字节</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>udp异常展示!$B$4:$Q$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.015843</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.032364</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.064869</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.128862</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.257486</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.52348</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.04284</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.05124</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.08406</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.03534</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15.3422</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>26.0502</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45.3302</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>71.6522</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>99.7028</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>136.98</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>udp异常展示!$A$5:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>不同节点提供者虚拟机到物理机接收带宽(MByte/s)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffc000"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="ffc000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffc000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>udp异常展示!$B$1:$Q$1</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>2字节</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4字节</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8字节</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16字节</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32字节</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>64字节</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128字节</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>256字节</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>512字节</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1024字节</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2048字节</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4096字节</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8192字节</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16384字节</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>32768字节</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>65536字节</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>udp异常展示!$B$5:$Q$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.015828</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.032364</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.064872</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.128996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.257234</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.523494</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.04286</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.04926</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.08418</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.03558</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15.3428</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>26.05</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45.3322</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>71.5072</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>99.6988</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>119.726</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="35324156"/>
-        <c:axId val="97722230"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="35324156"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="97722230"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="97722230"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="35324156"/>
+        <c:crossAx val="77832629"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9165,7 +9165,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A37" activeCellId="1" sqref="A1:Q5 A37"/>
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9491,7 +9491,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="1" sqref="A1:Q5 B27"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10594,7 +10594,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="1" sqref="A1:Q5 B27"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -11720,7 +11720,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="1" sqref="A1:Q5 B27"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -12877,7 +12877,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M27" activeCellId="1" sqref="A1:Q5 M27"/>
+      <selection pane="topLeft" activeCell="M27" activeCellId="0" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -14034,7 +14034,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="1" sqref="A1:Q5 B27"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -15191,7 +15191,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="1" sqref="A1:Q5 B27"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -16348,7 +16348,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="1" sqref="A1:Q5 B27"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -17505,7 +17505,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="1" sqref="A1:Q5 B27"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -18698,7 +18698,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="1" sqref="A1:Q5 B20"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -19891,7 +19891,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="A1:Q5 C18"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -21048,7 +21048,7 @@
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B40" activeCellId="1" sqref="A1:Q5 B40"/>
+      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -21381,7 +21381,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="1" sqref="A1:Q5 B27"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -22538,7 +22538,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O17" activeCellId="1" sqref="A1:Q5 O17"/>
+      <selection pane="topLeft" activeCell="O17" activeCellId="0" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -23695,7 +23695,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="1" sqref="A1:Q5 B27"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -24852,7 +24852,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="1" sqref="A1:Q5 B27"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -26009,7 +26009,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="1" sqref="A1:Q5 B27"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -27166,7 +27166,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="1" sqref="A1:Q5 B27"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -28323,7 +28323,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="1" sqref="A1:Q5 B27"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -29479,8 +29479,8 @@
   </sheetPr>
   <dimension ref="A2:S78"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A55" activeCellId="1" sqref="A1:Q5 A55"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -32505,68 +32505,644 @@
       <c r="A58" s="8" t="s">
         <v>190</v>
       </c>
+      <c r="B58" s="0" t="n">
+        <v>0.13292</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>0.36675</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>0.79309</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>1.5698</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>3.0301</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>6.1094</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>13.136</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>24.454</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>48.816</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>95.376</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>188.21</v>
+      </c>
+      <c r="M58" s="0" t="n">
+        <v>267.66</v>
+      </c>
+      <c r="N58" s="0" t="n">
+        <v>479.75</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <v>657.58</v>
+      </c>
+      <c r="P58" s="0" t="n">
+        <v>585.34</v>
+      </c>
+      <c r="Q58" s="0" t="n">
+        <v>936.03</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
         <v>191</v>
       </c>
+      <c r="B59" s="0" t="n">
+        <v>0.13274</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>0.36631</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>0.78116</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>1.5682</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>3.0274</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>6.1048</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>13.123</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>24.433</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>48.79</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>95.191</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>188.14</v>
+      </c>
+      <c r="M59" s="0" t="n">
+        <v>267.33</v>
+      </c>
+      <c r="N59" s="0" t="n">
+        <v>479.43</v>
+      </c>
+      <c r="O59" s="0" t="n">
+        <v>656.69</v>
+      </c>
+      <c r="P59" s="0" t="n">
+        <v>583.42</v>
+      </c>
+      <c r="Q59" s="0" t="n">
+        <v>921.22</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
         <v>192</v>
       </c>
+      <c r="B60" s="0" t="n">
+        <v>50.152</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>57.151</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>57.885</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>61.491</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>61.149</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>59.009</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>61.259</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>55.808</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>59.201</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>62.629</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <v>56.933</v>
+      </c>
+      <c r="M60" s="0" t="n">
+        <v>71.579</v>
+      </c>
+      <c r="N60" s="0" t="n">
+        <v>72.68</v>
+      </c>
+      <c r="O60" s="0" t="n">
+        <v>85.401</v>
+      </c>
+      <c r="P60" s="0" t="n">
+        <v>113.03</v>
+      </c>
+      <c r="Q60" s="0" t="n">
+        <v>160.26</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
         <v>193</v>
       </c>
+      <c r="B61" s="0" t="n">
+        <v>0.19139</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0.47733</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>1.199</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>2.3556</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>3.1934</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>8.7964</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>15.495</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>26.182</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <v>72.76</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>138.24</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <v>268.79</v>
+      </c>
+      <c r="M61" s="0" t="n">
+        <v>466.47</v>
+      </c>
+      <c r="N61" s="0" t="n">
+        <v>788.48</v>
+      </c>
+      <c r="O61" s="0" t="n">
+        <v>1.0787</v>
+      </c>
+      <c r="P61" s="0" t="n">
+        <v>2.494</v>
+      </c>
+      <c r="Q61" s="0" t="n">
+        <v>3.3676</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
         <v>194</v>
       </c>
+      <c r="B62" s="0" t="n">
+        <v>0.19131</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>0.47719</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>1.1911</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>2.3547</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>3.1908</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>8.7525</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>15.482</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>26.297</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <v>72.72</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <v>138.19</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <v>268.61</v>
+      </c>
+      <c r="M62" s="0" t="n">
+        <v>466.26</v>
+      </c>
+      <c r="N62" s="0" t="n">
+        <v>786.79</v>
+      </c>
+      <c r="O62" s="0" t="n">
+        <v>1.0783</v>
+      </c>
+      <c r="P62" s="0" t="n">
+        <v>2.4895</v>
+      </c>
+      <c r="Q62" s="0" t="n">
+        <v>3.3631</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
         <v>195</v>
       </c>
+      <c r="B63" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J63" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M63" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N63" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O63" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P63" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q63" s="0" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="8" t="s">
         <v>196</v>
       </c>
+      <c r="B64" s="0" t="n">
+        <v>0.17694</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.41858</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>0.61824</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>2.6471</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>6.6033</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>12.657</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>27.874</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <v>43.431</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>113.28</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>276.2</v>
+      </c>
+      <c r="M64" s="0" t="n">
+        <v>353.78</v>
+      </c>
+      <c r="N64" s="0" t="n">
+        <v>458.69</v>
+      </c>
+      <c r="O64" s="0" t="n">
+        <v>472.6</v>
+      </c>
+      <c r="P64" s="0" t="n">
+        <v>701.7</v>
+      </c>
+      <c r="Q64" s="0" t="n">
+        <v>749.85</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="s">
         <v>197</v>
       </c>
+      <c r="B65" s="0" t="n">
+        <v>0.17687</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>0.41853</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>0.61768</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>1.5197</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>2.6466</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>6.6013</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <v>12.656</v>
+      </c>
+      <c r="I65" s="0" t="n">
+        <v>27.717</v>
+      </c>
+      <c r="J65" s="0" t="n">
+        <v>43.419</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <v>113.26</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <v>276.16</v>
+      </c>
+      <c r="M65" s="0" t="n">
+        <v>353.72</v>
+      </c>
+      <c r="N65" s="0" t="n">
+        <v>458.3</v>
+      </c>
+      <c r="O65" s="0" t="n">
+        <v>472.41</v>
+      </c>
+      <c r="P65" s="0" t="n">
+        <v>701.53</v>
+      </c>
+      <c r="Q65" s="0" t="n">
+        <v>749.75</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8" t="s">
         <v>198</v>
       </c>
+      <c r="B66" s="0" t="n">
+        <v>23.61</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>35.008</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>33.278</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>34.144</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>27.033</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>30.461</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <v>31.885</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <v>32.73</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <v>33.296</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <v>32.458</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <v>30.419</v>
+      </c>
+      <c r="M66" s="0" t="n">
+        <v>34.072</v>
+      </c>
+      <c r="N66" s="0" t="n">
+        <v>40.363</v>
+      </c>
+      <c r="O66" s="0" t="n">
+        <v>45.419</v>
+      </c>
+      <c r="P66" s="0" t="n">
+        <v>61.256</v>
+      </c>
+      <c r="Q66" s="0" t="n">
+        <v>96.293</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="s">
         <v>199</v>
       </c>
+      <c r="B67" s="0" t="n">
+        <v>0.39756</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>0.76783</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>1.5186</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>3.1792</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>6.2152</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>12.273</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <v>25.566</v>
+      </c>
+      <c r="I67" s="0" t="n">
+        <v>49.444</v>
+      </c>
+      <c r="J67" s="0" t="n">
+        <v>96.408</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <v>199.55</v>
+      </c>
+      <c r="L67" s="0" t="n">
+        <v>442.24</v>
+      </c>
+      <c r="M67" s="0" t="n">
+        <v>817.86</v>
+      </c>
+      <c r="N67" s="0" t="n">
+        <v>1395.7</v>
+      </c>
+      <c r="O67" s="0" t="n">
+        <v>2185.1</v>
+      </c>
+      <c r="P67" s="0" t="n">
+        <v>3705.4</v>
+      </c>
+      <c r="Q67" s="0" t="n">
+        <v>4709.5</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="8" t="s">
         <v>200</v>
       </c>
+      <c r="B68" s="0" t="n">
+        <v>0.34101</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>0.75607</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>1.5158</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>2.9626</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>5.9483</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>11.855</v>
+      </c>
+      <c r="H68" s="0" t="n">
+        <v>25.544</v>
+      </c>
+      <c r="I68" s="0" t="n">
+        <v>49.399</v>
+      </c>
+      <c r="J68" s="0" t="n">
+        <v>84.984</v>
+      </c>
+      <c r="K68" s="0" t="n">
+        <v>110.67</v>
+      </c>
+      <c r="L68" s="0" t="n">
+        <v>117.46</v>
+      </c>
+      <c r="M68" s="0" t="n">
+        <v>117.31</v>
+      </c>
+      <c r="N68" s="0" t="n">
+        <v>119.74</v>
+      </c>
+      <c r="O68" s="0" t="n">
+        <v>119.81</v>
+      </c>
+      <c r="P68" s="0" t="n">
+        <v>119.89</v>
+      </c>
+      <c r="Q68" s="0" t="n">
+        <v>120.11</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="8" t="s">
         <v>201</v>
       </c>
+      <c r="B69" s="0" t="n">
+        <v>87.264</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>79.526</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>96.791</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>96.801</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>94.917</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>73.333</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <v>82.881</v>
+      </c>
+      <c r="I69" s="0" t="n">
+        <v>75.818</v>
+      </c>
+      <c r="J69" s="0" t="n">
+        <v>91.079</v>
+      </c>
+      <c r="K69" s="0" t="n">
+        <v>105.05</v>
+      </c>
+      <c r="L69" s="0" t="n">
+        <v>104.54</v>
+      </c>
+      <c r="M69" s="0" t="n">
+        <v>130.17</v>
+      </c>
+      <c r="N69" s="0" t="n">
+        <v>174.11</v>
+      </c>
+      <c r="O69" s="0" t="n">
+        <v>193.4</v>
+      </c>
+      <c r="P69" s="0" t="n">
+        <v>271.78</v>
+      </c>
+      <c r="Q69" s="0" t="n">
+        <v>447.93</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="8" t="s">
         <v>202</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>728.99</v>
+        <v>0.72899</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>1.4412</v>
@@ -32619,10 +33195,10 @@
         <v>203</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>224.98</v>
+        <v>0.22498</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>587.74</v>
+        <v>0.58774</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>1.1882</v>
@@ -32724,15 +33300,159 @@
       <c r="A73" s="8" t="s">
         <v>205</v>
       </c>
+      <c r="B73" s="0" t="n">
+        <v>0.17658</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>0.51337</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>1.2233</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>2.4962</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>5.2146</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <v>9.806</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <v>20.083</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>36.67</v>
+      </c>
+      <c r="J73" s="0" t="n">
+        <v>74.15</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <v>150.77</v>
+      </c>
+      <c r="L73" s="0" t="n">
+        <v>295.36</v>
+      </c>
+      <c r="M73" s="0" t="n">
+        <v>533.72</v>
+      </c>
+      <c r="N73" s="0" t="n">
+        <v>1058.4</v>
+      </c>
+      <c r="O73" s="0" t="n">
+        <v>1667.2</v>
+      </c>
+      <c r="P73" s="0" t="n">
+        <v>3131.3</v>
+      </c>
+      <c r="Q73" s="0" t="n">
+        <v>5612.8</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="8" t="s">
         <v>206</v>
       </c>
+      <c r="B74" s="0" t="n">
+        <v>0.17658</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0.51337</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>1.2233</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>2.4962</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>5.2146</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <v>9.796</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <v>20.083</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <v>36.663</v>
+      </c>
+      <c r="J74" s="0" t="n">
+        <v>74.149</v>
+      </c>
+      <c r="K74" s="0" t="n">
+        <v>150.77</v>
+      </c>
+      <c r="L74" s="0" t="n">
+        <v>295.27</v>
+      </c>
+      <c r="M74" s="0" t="n">
+        <v>533.54</v>
+      </c>
+      <c r="N74" s="0" t="n">
+        <v>1058.1</v>
+      </c>
+      <c r="O74" s="0" t="n">
+        <v>1665.8</v>
+      </c>
+      <c r="P74" s="0" t="n">
+        <v>3128</v>
+      </c>
+      <c r="Q74" s="0" t="n">
+        <v>5412.3</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="8" t="s">
         <v>207</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>9.557</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>10.733</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>9.649</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>10.284</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>12.141</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <v>11.289</v>
+      </c>
+      <c r="H75" s="0" t="n">
+        <v>13.644</v>
+      </c>
+      <c r="I75" s="0" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="J75" s="0" t="n">
+        <v>11.906</v>
+      </c>
+      <c r="K75" s="0" t="n">
+        <v>11.647</v>
+      </c>
+      <c r="L75" s="0" t="n">
+        <v>11.843</v>
+      </c>
+      <c r="M75" s="0" t="n">
+        <v>12.346</v>
+      </c>
+      <c r="N75" s="0" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="O75" s="0" t="n">
+        <v>13.395</v>
+      </c>
+      <c r="P75" s="0" t="n">
+        <v>17.313</v>
+      </c>
+      <c r="Q75" s="0" t="n">
+        <v>22.436</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32913,7 +33633,7 @@
   <dimension ref="A1:Q145"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="1" sqref="A1:Q5 D18"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -35992,8 +36712,8 @@
   </sheetPr>
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:Q5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -36283,7 +37003,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="1" sqref="A1:Q5 A18"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -36574,7 +37294,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:Q5"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -36871,7 +37591,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F52" activeCellId="1" sqref="A1:Q5 F52"/>
+      <selection pane="topLeft" activeCell="F52" activeCellId="0" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -37633,7 +38353,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="1" sqref="A1:Q5 F22"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
